--- a/tests/output/02-styles.xlsx
+++ b/tests/output/02-styles.xlsx
@@ -7,13 +7,14 @@
     <sheet sheetId="1" name="FontStyles" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Colors" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Alignment" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="VerticalAlignment" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>通常</t>
   </si>
@@ -55,6 +56,34 @@
   </si>
   <si>
     <t>右寄せ</t>
+  </si>
+  <si>
+    <t>上左</t>
+  </si>
+  <si>
+    <t>上中央</t>
+  </si>
+  <si>
+    <t>上右</t>
+  </si>
+  <si>
+    <t>中央左</t>
+  </si>
+  <si>
+    <t>中央右</t>
+  </si>
+  <si>
+    <t>下左</t>
+  </si>
+  <si>
+    <t>下中央</t>
+  </si>
+  <si>
+    <t>下右</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト
+複数行</t>
   </si>
 </sst>
 </file>
@@ -124,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,6 +172,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,4 +655,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/tests/output/02-styles.xlsx
+++ b/tests/output/02-styles.xlsx
@@ -532,6 +532,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="6" width="9.2" customWidth="1"/>
+    <col min="7" max="7" width="18.8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -589,6 +593,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="9.2" customWidth="1"/>
+    <col min="4" max="4" width="16.4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -628,6 +636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -661,6 +672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="9" width="17.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
